--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studyuser\Documents\git\13_HJHK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523B86D-63B4-496B-9F36-A337578629CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122D6B5-E831-485B-B595-E83E41DEE363}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="1215" windowWidth="10305" windowHeight="7200" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="1215" windowWidth="10305" windowHeight="7200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
